--- a/input/Sheldon_data.xlsx
+++ b/input/Sheldon_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="67">
   <si>
     <t xml:space="preserve">Site</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">warmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">free-ice</t>
   </si>
   <si>
     <t xml:space="preserve">2018_R2_2F_2</t>
@@ -233,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -280,13 +277,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
       <b val="true"/>
@@ -339,7 +329,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -376,15 +366,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -513,8 +499,8 @@
   </sheetPr>
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB27" activeCellId="0" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -725,8 +711,8 @@
       <c r="AA2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="9" t="s">
-        <v>32</v>
+      <c r="AB2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
@@ -749,13 +735,13 @@
         <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>-2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>4.55717179156693</v>
@@ -828,8 +814,8 @@
       <c r="AA3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="9" t="s">
-        <v>32</v>
+      <c r="AB3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -852,13 +838,13 @@
         <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>-3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>5.86333169154335</v>
@@ -931,8 +917,8 @@
       <c r="AA4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="9" t="s">
-        <v>32</v>
+      <c r="AB4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -955,13 +941,13 @@
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>-4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>11.4447378347793</v>
@@ -1034,8 +1020,8 @@
       <c r="AA5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB5" s="9" t="s">
-        <v>32</v>
+      <c r="AB5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
@@ -1058,13 +1044,13 @@
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>-5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>12.9090488312891</v>
@@ -1137,8 +1123,8 @@
       <c r="AA6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB6" s="9" t="s">
-        <v>32</v>
+      <c r="AB6" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
@@ -1161,13 +1147,13 @@
         <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>-6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>21.4108071444721</v>
@@ -1240,8 +1226,8 @@
       <c r="AA7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB7" s="9" t="s">
-        <v>32</v>
+      <c r="AB7" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
@@ -1264,13 +1250,13 @@
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>-7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>39.8722878330129</v>
@@ -1343,8 +1329,8 @@
       <c r="AA8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB8" s="9" t="s">
-        <v>32</v>
+      <c r="AB8" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
@@ -1367,13 +1353,13 @@
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>-8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>39.5991825659872</v>
@@ -1446,8 +1432,8 @@
       <c r="AA9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB9" s="9" t="s">
-        <v>32</v>
+      <c r="AB9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
@@ -1470,13 +1456,13 @@
         <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>-9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>38.4205933682374</v>
@@ -1549,8 +1535,8 @@
       <c r="AA10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB10" s="9" t="s">
-        <v>32</v>
+      <c r="AB10" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
@@ -1573,13 +1559,13 @@
         <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>-10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>6.73507842737828</v>
@@ -1652,8 +1638,8 @@
       <c r="AA11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB11" s="9" t="s">
-        <v>32</v>
+      <c r="AB11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
@@ -1676,13 +1662,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>-12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>19.534040020407</v>
@@ -1756,7 +1742,7 @@
         <v>31</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
@@ -1779,13 +1765,13 @@
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>-14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>29.8046702209392</v>
@@ -1859,7 +1845,7 @@
         <v>31</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
@@ -1882,13 +1868,13 @@
         <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>-16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>7.43568608737148</v>
@@ -1956,13 +1942,13 @@
         <v>55823</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
@@ -1985,13 +1971,13 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>-18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="7" t="n">
         <v>5.23411559006112</v>
@@ -2059,13 +2045,13 @@
         <v>136114</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
@@ -2088,13 +2074,13 @@
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>-20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>30.7322093410419</v>
@@ -2162,13 +2148,13 @@
         <v>55823</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
@@ -2191,13 +2177,13 @@
         <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>-22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>8.47441199276299</v>
@@ -2265,13 +2251,13 @@
         <v>60249</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
@@ -2294,13 +2280,13 @@
         <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>-24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>32.6203014345379</v>
@@ -2368,13 +2354,13 @@
         <v>49214</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
@@ -2397,13 +2383,13 @@
         <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>-25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>7.15254922339627</v>
@@ -2471,13 +2457,13 @@
         <v>179417</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
@@ -2499,67 +2485,67 @@
       <c r="V20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V21" s="10"/>
+      <c r="V21" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V23" s="10"/>
+      <c r="V23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V25" s="10"/>
+      <c r="V25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V29" s="10"/>
+      <c r="V29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V31" s="10"/>
+      <c r="V31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V33" s="10"/>
+      <c r="V33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V35" s="10"/>
+      <c r="V35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V37" s="10"/>
+      <c r="V37" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/input/Sheldon_data.xlsx
+++ b/input/Sheldon_data.xlsx
@@ -34,22 +34,22 @@
     <t xml:space="preserve">DNA_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Diatoms_rel_abundance_rarefied</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinoflagellata_rel_abundance_rarefied</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polarella_rel_abundance_rarefied</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polarella_rel_to_Dinoflagellata_rarefied</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Islandinium_rel_abundance_rarefied</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Islandinium_rel_to_Dinoflagellata_rarefied</t>
+    <t xml:space="preserve">Diatoms_rel_abundance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinoflagellata_rel_abundance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polarella_rel_abundance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polarella_rel_to_Dinoflagellata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islandinium_rel_abundance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islandinium_rel_to_Dinoflagellata</t>
   </si>
   <si>
     <t xml:space="preserve">Age</t>
@@ -329,7 +329,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -354,15 +354,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -499,8 +495,8 @@
   </sheetPr>
   <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB27" activeCellId="0" sqref="AB27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -517,13 +513,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="38.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="18.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="27.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="25.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="27.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="27.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="25.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="27.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="18.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="17.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="17.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="1" width="17.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="16.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,7 +588,7 @@
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
@@ -659,7 +654,7 @@
         <f aca="false">100*I2/F2</f>
         <v>1.35027799841144</v>
       </c>
-      <c r="K2" s="7" t="n">
+      <c r="K2" s="6" t="n">
         <v>2015.361336</v>
       </c>
       <c r="L2" s="1" t="n">
@@ -678,25 +673,25 @@
       <c r="P2" s="1" t="n">
         <v>2.470438314</v>
       </c>
-      <c r="Q2" s="7" t="n">
+      <c r="Q2" s="6" t="n">
         <v>31.09493412</v>
       </c>
-      <c r="R2" s="7" t="n">
+      <c r="R2" s="6" t="n">
         <v>8.332647829</v>
       </c>
-      <c r="S2" s="7" t="n">
+      <c r="S2" s="6" t="n">
         <v>0.475798172</v>
       </c>
       <c r="T2" s="1" t="n">
         <v>11.2</v>
       </c>
-      <c r="U2" s="7" t="n">
+      <c r="U2" s="6" t="n">
         <v>0.314570253</v>
       </c>
       <c r="V2" s="1" t="n">
         <v>0.519219799070816</v>
       </c>
-      <c r="W2" s="8" t="n">
+      <c r="W2" s="7" t="n">
         <v>7.8</v>
       </c>
       <c r="X2" s="1" t="n">
@@ -762,7 +757,7 @@
         <f aca="false">100*I3/F3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="7" t="n">
+      <c r="K3" s="6" t="n">
         <v>2010.084009</v>
       </c>
       <c r="L3" s="1" t="n">
@@ -781,25 +776,25 @@
       <c r="P3" s="1" t="n">
         <v>3.937889374</v>
       </c>
-      <c r="Q3" s="7" t="n">
+      <c r="Q3" s="6" t="n">
         <v>34.49166375</v>
       </c>
-      <c r="R3" s="7" t="n">
+      <c r="R3" s="6" t="n">
         <v>2.717276272</v>
       </c>
-      <c r="S3" s="7" t="n">
+      <c r="S3" s="6" t="n">
         <v>0.644474439</v>
       </c>
       <c r="T3" s="1" t="n">
         <v>14.4</v>
       </c>
-      <c r="U3" s="7" t="n">
+      <c r="U3" s="6" t="n">
         <v>0.70187199</v>
       </c>
       <c r="V3" s="1" t="n">
         <v>0.611023360356254</v>
       </c>
-      <c r="W3" s="8" t="n">
+      <c r="W3" s="7" t="n">
         <v>8.8</v>
       </c>
       <c r="X3" s="1" t="n">
@@ -865,7 +860,7 @@
         <f aca="false">100*I4/F4</f>
         <v>0.813920853213585</v>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="K4" s="6" t="n">
         <v>2004.806682</v>
       </c>
       <c r="L4" s="1" t="n">
@@ -884,25 +879,25 @@
       <c r="P4" s="1" t="n">
         <v>3.32148883</v>
       </c>
-      <c r="Q4" s="7" t="n">
+      <c r="Q4" s="6" t="n">
         <v>37.85189685</v>
       </c>
-      <c r="R4" s="7" t="n">
+      <c r="R4" s="6" t="n">
         <v>2.245772247</v>
       </c>
-      <c r="S4" s="7" t="n">
+      <c r="S4" s="6" t="n">
         <v>0.513553674</v>
       </c>
       <c r="T4" s="1" t="n">
         <v>13.35</v>
       </c>
-      <c r="U4" s="7" t="n">
+      <c r="U4" s="6" t="n">
         <v>1.046579724</v>
       </c>
       <c r="V4" s="1" t="n">
         <v>0.646765664427219</v>
       </c>
-      <c r="W4" s="8" t="n">
+      <c r="W4" s="7" t="n">
         <v>8.9</v>
       </c>
       <c r="X4" s="1" t="n">
@@ -968,7 +963,7 @@
         <f aca="false">100*I5/F5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="7" t="n">
+      <c r="K5" s="6" t="n">
         <v>1999.529355</v>
       </c>
       <c r="L5" s="1" t="n">
@@ -987,25 +982,25 @@
       <c r="P5" s="1" t="n">
         <v>2.023542876</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>32.96852195</v>
       </c>
-      <c r="R5" s="7" t="n">
+      <c r="R5" s="6" t="n">
         <v>1.393464214</v>
       </c>
-      <c r="S5" s="7" t="n">
+      <c r="S5" s="6" t="n">
         <v>0.335392862</v>
       </c>
       <c r="T5" s="1" t="n">
         <v>12.45</v>
       </c>
-      <c r="U5" s="7" t="n">
+      <c r="U5" s="6" t="n">
         <v>0.95916073</v>
       </c>
       <c r="V5" s="1" t="n">
         <v>0.603335104262045</v>
       </c>
-      <c r="W5" s="8" t="n">
+      <c r="W5" s="7" t="n">
         <v>8.4</v>
       </c>
       <c r="X5" s="1" t="n">
@@ -1071,7 +1066,7 @@
         <f aca="false">100*I6/F6</f>
         <v>3.91061452513966</v>
       </c>
-      <c r="K6" s="7" t="n">
+      <c r="K6" s="6" t="n">
         <v>1994.252028</v>
       </c>
       <c r="L6" s="1" t="n">
@@ -1090,25 +1085,25 @@
       <c r="P6" s="1" t="n">
         <v>1.566535215</v>
       </c>
-      <c r="Q6" s="7" t="n">
+      <c r="Q6" s="6" t="n">
         <v>36.79154228</v>
       </c>
-      <c r="R6" s="7" t="n">
+      <c r="R6" s="6" t="n">
         <v>1.105045964</v>
       </c>
-      <c r="S6" s="7" t="n">
+      <c r="S6" s="6" t="n">
         <v>0.284166228</v>
       </c>
       <c r="T6" s="1" t="n">
         <v>13.65</v>
       </c>
-      <c r="U6" s="7" t="n">
+      <c r="U6" s="6" t="n">
         <v>0.450746167</v>
       </c>
       <c r="V6" s="1" t="n">
         <v>0.551274241142109</v>
       </c>
-      <c r="W6" s="8" t="n">
+      <c r="W6" s="7" t="n">
         <v>8.7</v>
       </c>
       <c r="X6" s="1" t="n">
@@ -1174,7 +1169,7 @@
         <f aca="false">100*I7/F7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="7" t="n">
+      <c r="K7" s="6" t="n">
         <v>1988.974701</v>
       </c>
       <c r="L7" s="1" t="n">
@@ -1193,25 +1188,25 @@
       <c r="P7" s="1" t="n">
         <v>1.287040249</v>
       </c>
-      <c r="Q7" s="7" t="n">
+      <c r="Q7" s="6" t="n">
         <v>42.00922033</v>
       </c>
-      <c r="R7" s="7" t="n">
+      <c r="R7" s="6" t="n">
         <v>0.889934214</v>
       </c>
-      <c r="S7" s="7" t="n">
+      <c r="S7" s="6" t="n">
         <v>0.251157094</v>
       </c>
       <c r="T7" s="1" t="n">
         <v>13.05</v>
       </c>
-      <c r="U7" s="7" t="n">
+      <c r="U7" s="6" t="n">
         <v>0.06426997</v>
       </c>
       <c r="V7" s="1" t="n">
         <v>0.512444315577288</v>
       </c>
-      <c r="W7" s="8" t="n">
+      <c r="W7" s="7" t="n">
         <v>4.1</v>
       </c>
       <c r="X7" s="1" t="n">
@@ -1277,7 +1272,7 @@
         <f aca="false">100*I8/F8</f>
         <v>4.78468899521531</v>
       </c>
-      <c r="K8" s="7" t="n">
+      <c r="K8" s="6" t="n">
         <v>1983.697374</v>
       </c>
       <c r="L8" s="1" t="n">
@@ -1296,25 +1291,25 @@
       <c r="P8" s="1" t="n">
         <v>1.327321945</v>
       </c>
-      <c r="Q8" s="7" t="n">
+      <c r="Q8" s="6" t="n">
         <v>35.73530155</v>
       </c>
-      <c r="R8" s="7" t="n">
+      <c r="R8" s="6" t="n">
         <v>1.01851283</v>
       </c>
-      <c r="S8" s="7" t="n">
+      <c r="S8" s="6" t="n">
         <v>0.267626894</v>
       </c>
       <c r="T8" s="1" t="n">
         <v>12.5</v>
       </c>
-      <c r="U8" s="7" t="n">
+      <c r="U8" s="6" t="n">
         <v>2.029355438</v>
       </c>
       <c r="V8" s="1" t="n">
         <v>0.49595985092259</v>
       </c>
-      <c r="W8" s="8" t="n">
+      <c r="W8" s="7" t="n">
         <v>4.3</v>
       </c>
       <c r="X8" s="1" t="n">
@@ -1380,7 +1375,7 @@
         <f aca="false">100*I9/F9</f>
         <v>15.6514382402707</v>
       </c>
-      <c r="K9" s="7" t="n">
+      <c r="K9" s="6" t="n">
         <v>1978.420047</v>
       </c>
       <c r="L9" s="1" t="n">
@@ -1399,25 +1394,25 @@
       <c r="P9" s="1" t="n">
         <v>0.501456931</v>
       </c>
-      <c r="Q9" s="7" t="n">
+      <c r="Q9" s="6" t="n">
         <v>37.35060134</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="R9" s="6" t="n">
         <v>0.431752072</v>
       </c>
-      <c r="S9" s="7" t="n">
+      <c r="S9" s="6" t="n">
         <v>0.10366865</v>
       </c>
       <c r="T9" s="1" t="n">
         <v>14.9</v>
       </c>
-      <c r="U9" s="7" t="n">
+      <c r="U9" s="6" t="n">
         <v>1.572787524</v>
       </c>
       <c r="V9" s="1" t="n">
         <v>0.483711256359042</v>
       </c>
-      <c r="W9" s="8" t="n">
+      <c r="W9" s="7" t="n">
         <v>6.2</v>
       </c>
       <c r="X9" s="1" t="n">
@@ -1483,7 +1478,7 @@
         <f aca="false">100*I10/F10</f>
         <v>19.6656833824976</v>
       </c>
-      <c r="K10" s="7" t="n">
+      <c r="K10" s="6" t="n">
         <v>1973.14272</v>
       </c>
       <c r="L10" s="1" t="n">
@@ -1502,25 +1497,25 @@
       <c r="P10" s="1" t="n">
         <v>0.546152666</v>
       </c>
-      <c r="Q10" s="7" t="n">
+      <c r="Q10" s="6" t="n">
         <v>45.2125135</v>
       </c>
-      <c r="R10" s="7" t="n">
+      <c r="R10" s="6" t="n">
         <v>0.424394149</v>
       </c>
-      <c r="S10" s="7" t="n">
+      <c r="S10" s="6" t="n">
         <v>0.116862447</v>
       </c>
       <c r="T10" s="1" t="n">
         <v>14.05</v>
       </c>
-      <c r="U10" s="7" t="n">
+      <c r="U10" s="6" t="n">
         <v>1.456391274</v>
       </c>
       <c r="V10" s="1" t="n">
         <v>0.467346594901613</v>
       </c>
-      <c r="W10" s="8" t="n">
+      <c r="W10" s="7" t="n">
         <v>7.5</v>
       </c>
       <c r="X10" s="1" t="n">
@@ -1586,7 +1581,7 @@
         <f aca="false">100*I11/F11</f>
         <v>31.4102564102565</v>
       </c>
-      <c r="K11" s="7" t="n">
+      <c r="K11" s="6" t="n">
         <v>1967.865393</v>
       </c>
       <c r="L11" s="1" t="n">
@@ -1605,25 +1600,25 @@
       <c r="P11" s="1" t="n">
         <v>0.397435823</v>
       </c>
-      <c r="Q11" s="7" t="n">
+      <c r="Q11" s="6" t="n">
         <v>34.66994827</v>
       </c>
-      <c r="R11" s="7" t="n">
+      <c r="R11" s="6" t="n">
         <v>0.335576953</v>
       </c>
-      <c r="S11" s="7" t="n">
+      <c r="S11" s="6" t="n">
         <v>0.086792553</v>
       </c>
       <c r="T11" s="1" t="n">
         <v>14.05</v>
       </c>
-      <c r="U11" s="7" t="n">
+      <c r="U11" s="6" t="n">
         <v>0.474884585</v>
       </c>
       <c r="V11" s="1" t="n">
         <v>0.457914659485202</v>
       </c>
-      <c r="W11" s="8" t="n">
+      <c r="W11" s="7" t="n">
         <v>6.8</v>
       </c>
       <c r="X11" s="1" t="n">
@@ -1689,7 +1684,7 @@
         <f aca="false">100*I12/F12</f>
         <v>52.7272727272727</v>
       </c>
-      <c r="K12" s="7" t="n">
+      <c r="K12" s="6" t="n">
         <v>1957.310738</v>
       </c>
       <c r="L12" s="1" t="n">
@@ -1708,25 +1703,25 @@
       <c r="P12" s="1" t="n">
         <v>0.15256453</v>
       </c>
-      <c r="Q12" s="7" t="n">
+      <c r="Q12" s="6" t="n">
         <v>22.68198767</v>
       </c>
-      <c r="R12" s="7" t="n">
+      <c r="R12" s="6" t="n">
         <v>0.138832712</v>
       </c>
-      <c r="S12" s="7" t="n">
+      <c r="S12" s="6" t="n">
         <v>0.033349064</v>
       </c>
       <c r="T12" s="1" t="n">
         <v>14.4</v>
       </c>
-      <c r="U12" s="7" t="n">
+      <c r="U12" s="6" t="n">
         <v>0.599467355</v>
       </c>
       <c r="V12" s="1" t="n">
         <v>0.457477697012963</v>
       </c>
-      <c r="W12" s="8" t="n">
+      <c r="W12" s="7" t="n">
         <v>7.4</v>
       </c>
       <c r="X12" s="1" t="n">
@@ -1792,7 +1787,7 @@
         <f aca="false">100*I13/F13</f>
         <v>42.7803379416281</v>
       </c>
-      <c r="K13" s="7" t="n">
+      <c r="K13" s="6" t="n">
         <v>1946.756084</v>
       </c>
       <c r="L13" s="1" t="n">
@@ -1811,25 +1806,25 @@
       <c r="P13" s="1" t="n">
         <v>0.34348382</v>
       </c>
-      <c r="Q13" s="7" t="n">
+      <c r="Q13" s="6" t="n">
         <v>40.87743285</v>
       </c>
-      <c r="R13" s="7" t="n">
+      <c r="R13" s="6" t="n">
         <v>0.330475535</v>
       </c>
-      <c r="S13" s="7" t="n">
+      <c r="S13" s="6" t="n">
         <v>0.081360812</v>
       </c>
       <c r="T13" s="1" t="n">
         <v>12.35</v>
       </c>
-      <c r="U13" s="7" t="n">
+      <c r="U13" s="6" t="n">
         <v>1.947021722</v>
       </c>
       <c r="V13" s="1" t="n">
         <v>0.422173538072976</v>
       </c>
-      <c r="W13" s="8" t="n">
+      <c r="W13" s="7" t="n">
         <v>7.9</v>
       </c>
       <c r="X13" s="1" t="n">
@@ -1895,7 +1890,7 @@
         <f aca="false">100*I14/F14</f>
         <v>0</v>
       </c>
-      <c r="K14" s="7" t="n">
+      <c r="K14" s="6" t="n">
         <v>1936.20143</v>
       </c>
       <c r="L14" s="1" t="n">
@@ -1914,25 +1909,25 @@
       <c r="P14" s="1" t="n">
         <v>0.279240492</v>
       </c>
-      <c r="Q14" s="7" t="n">
+      <c r="Q14" s="6" t="n">
         <v>32.26210175</v>
       </c>
-      <c r="R14" s="7" t="n">
+      <c r="R14" s="6" t="n">
         <v>0.264701004</v>
       </c>
-      <c r="S14" s="7" t="n">
+      <c r="S14" s="6" t="n">
         <v>0.064903705</v>
       </c>
       <c r="T14" s="1" t="n">
         <v>11.25</v>
       </c>
-      <c r="U14" s="7" t="n">
+      <c r="U14" s="6" t="n">
         <v>1.036959016</v>
       </c>
       <c r="V14" s="1" t="n">
         <v>0.430238139507122</v>
       </c>
-      <c r="W14" s="8" t="n">
+      <c r="W14" s="7" t="n">
         <v>8.7</v>
       </c>
       <c r="X14" s="1" t="n">
@@ -1979,10 +1974,10 @@
       <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="6" t="n">
         <v>5.23411559006112</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="6" t="n">
         <v>2.33714569865738</v>
       </c>
       <c r="G15" s="1" t="n">
@@ -1998,7 +1993,7 @@
         <f aca="false">100*I15/F15</f>
         <v>0.892244337680165</v>
       </c>
-      <c r="K15" s="7" t="n">
+      <c r="K15" s="6" t="n">
         <v>1925.646776</v>
       </c>
       <c r="L15" s="1" t="n">
@@ -2017,25 +2012,25 @@
       <c r="P15" s="1" t="n">
         <v>0.176807409</v>
       </c>
-      <c r="Q15" s="7" t="n">
+      <c r="Q15" s="6" t="n">
         <v>34.44148414</v>
       </c>
-      <c r="R15" s="7" t="n">
+      <c r="R15" s="6" t="n">
         <v>0.204344634</v>
       </c>
-      <c r="S15" s="7" t="n">
+      <c r="S15" s="6" t="n">
         <v>0.04309859</v>
       </c>
       <c r="T15" s="1" t="n">
         <v>13.6</v>
       </c>
-      <c r="U15" s="7" t="n">
+      <c r="U15" s="6" t="n">
         <v>0.503925111</v>
       </c>
       <c r="V15" s="1" t="n">
         <v>0.41023942870917</v>
       </c>
-      <c r="W15" s="8" t="n">
+      <c r="W15" s="7" t="n">
         <v>5.8</v>
       </c>
       <c r="X15" s="1" t="n">
@@ -2101,7 +2096,7 @@
         <f aca="false">100*I16/F16</f>
         <v>0</v>
       </c>
-      <c r="K16" s="7" t="n">
+      <c r="K16" s="6" t="n">
         <v>1915.092122</v>
       </c>
       <c r="L16" s="1" t="n">
@@ -2120,25 +2115,25 @@
       <c r="P16" s="1" t="n">
         <v>0.208459106</v>
       </c>
-      <c r="Q16" s="7" t="n">
+      <c r="Q16" s="6" t="n">
         <v>34.92739749</v>
       </c>
-      <c r="R16" s="7" t="n">
+      <c r="R16" s="6" t="n">
         <v>0.227840136</v>
       </c>
-      <c r="S16" s="7" t="n">
+      <c r="S16" s="6" t="n">
         <v>0.051112597</v>
       </c>
       <c r="T16" s="1" t="n">
         <v>13.35</v>
       </c>
-      <c r="U16" s="7" t="n">
+      <c r="U16" s="6" t="n">
         <v>0.361673805</v>
       </c>
       <c r="V16" s="1" t="n">
         <v>0.407842911192474</v>
       </c>
-      <c r="W16" s="8" t="n">
+      <c r="W16" s="7" t="n">
         <v>7.2</v>
       </c>
       <c r="X16" s="1" t="n">
@@ -2204,7 +2199,7 @@
         <f aca="false">100*I17/F17</f>
         <v>0</v>
       </c>
-      <c r="K17" s="7" t="n">
+      <c r="K17" s="6" t="n">
         <v>1904.537467</v>
       </c>
       <c r="L17" s="1" t="n">
@@ -2223,25 +2218,25 @@
       <c r="P17" s="1" t="n">
         <v>0.228180391</v>
       </c>
-      <c r="Q17" s="7" t="n">
+      <c r="Q17" s="6" t="n">
         <v>29.08089285</v>
       </c>
-      <c r="R17" s="7" t="n">
+      <c r="R17" s="6" t="n">
         <v>0.197863338</v>
       </c>
-      <c r="S17" s="7" t="n">
+      <c r="S17" s="6" t="n">
         <v>0.052766329</v>
       </c>
       <c r="T17" s="1" t="n">
         <v>14.55</v>
       </c>
-      <c r="U17" s="7" t="n">
+      <c r="U17" s="6" t="n">
         <v>0.624224256</v>
       </c>
       <c r="V17" s="1" t="n">
         <v>0.432435598794815</v>
       </c>
-      <c r="W17" s="8" t="n">
+      <c r="W17" s="7" t="n">
         <v>7.02</v>
       </c>
       <c r="X17" s="1" t="n">
@@ -2294,7 +2289,7 @@
       <c r="F18" s="1" t="n">
         <v>3.19593244960959</v>
       </c>
-      <c r="G18" s="7" t="n">
+      <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="n">
@@ -2307,7 +2302,7 @@
         <f aca="false">100*I18/F18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="7" t="n">
+      <c r="K18" s="6" t="n">
         <v>1893.982813</v>
       </c>
       <c r="L18" s="1" t="n">
@@ -2326,25 +2321,25 @@
       <c r="P18" s="1" t="n">
         <v>0.34210328</v>
       </c>
-      <c r="Q18" s="7" t="n">
+      <c r="Q18" s="6" t="n">
         <v>34.29286037</v>
       </c>
-      <c r="R18" s="7" t="n">
+      <c r="R18" s="6" t="n">
         <v>0.240552922</v>
       </c>
-      <c r="S18" s="7" t="n">
+      <c r="S18" s="6" t="n">
         <v>0.079011475</v>
       </c>
       <c r="T18" s="1" t="n">
         <v>12.15</v>
       </c>
-      <c r="U18" s="7" t="n">
+      <c r="U18" s="6" t="n">
         <v>0.756114375</v>
       </c>
       <c r="V18" s="1" t="n">
         <v>0.432979234160661</v>
       </c>
-      <c r="W18" s="8" t="n">
+      <c r="W18" s="7" t="n">
         <v>6.9</v>
       </c>
       <c r="X18" s="1" t="n">
@@ -2410,7 +2405,7 @@
         <f aca="false">100*I19/F19</f>
         <v>1.162176439514</v>
       </c>
-      <c r="K19" s="7" t="n">
+      <c r="K19" s="6" t="n">
         <v>1888.705486</v>
       </c>
       <c r="L19" s="1" t="n">
@@ -2429,25 +2424,25 @@
       <c r="P19" s="1" t="n">
         <v>0.30329524</v>
       </c>
-      <c r="Q19" s="7" t="n">
+      <c r="Q19" s="6" t="n">
         <v>31.08989377</v>
       </c>
-      <c r="R19" s="7" t="n">
+      <c r="R19" s="6" t="n">
         <v>0.26632393</v>
       </c>
-      <c r="S19" s="7" t="n">
+      <c r="S19" s="6" t="n">
         <v>0.071010719</v>
       </c>
       <c r="T19" s="1" t="n">
         <v>11.25</v>
       </c>
-      <c r="U19" s="7" t="n">
+      <c r="U19" s="6" t="n">
         <v>0.439943166</v>
       </c>
       <c r="V19" s="1" t="n">
         <v>0.427111910617996</v>
       </c>
-      <c r="W19" s="8" t="n">
+      <c r="W19" s="7" t="n">
         <v>8.3</v>
       </c>
       <c r="X19" s="1" t="n">
@@ -2482,70 +2477,70 @@
       <c r="AS19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V20" s="7"/>
+      <c r="V20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V21" s="9"/>
+      <c r="V21" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V23" s="9"/>
+      <c r="V23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V24" s="7"/>
+      <c r="V24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V25" s="9"/>
+      <c r="V25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V26" s="7"/>
+      <c r="V26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V28" s="7"/>
+      <c r="V28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V29" s="9"/>
+      <c r="V29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V30" s="7"/>
+      <c r="V30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V31" s="9"/>
+      <c r="V31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V32" s="7"/>
+      <c r="V32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V33" s="9"/>
+      <c r="V33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V34" s="7"/>
+      <c r="V34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V35" s="9"/>
+      <c r="V35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V36" s="7"/>
+      <c r="V36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V37" s="9"/>
+      <c r="V37" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
